--- a/test/functional/xlsx_files/hyperlink20.xlsx
+++ b/test/functional/xlsx_files/hyperlink20.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -81,11 +81,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF0000FF"/>
-    </mruColors>
-  </colors>
 </styleSheet>
 </file>
 
